--- a/Music and Memory/BehaviouralResults/OlderAdults/OA_CBSScores.xlsx
+++ b/Music and Memory/BehaviouralResults/OlderAdults/OA_CBSScores.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject\Music and Memory\BehaviouralResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23625" windowHeight="11490"/>
+    <workbookView xWindow="12200" yWindow="10860" windowWidth="23620" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -128,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -440,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,15 +449,15 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -538,7 +536,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -579,7 +577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -620,7 +618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -661,7 +659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -702,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -743,7 +741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -784,7 +782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -825,7 +823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -866,7 +864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -907,7 +905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -948,7 +946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -989,12 +987,48 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>83</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1035,43 +1069,48 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>